--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Mat</t>
   </si>
@@ -76,13 +76,49 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>CHORA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>GABRIEL ALEJANDRO</t>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LOMAN</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>COTLAME</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>MARY ESTEFANY</t>
+  </si>
+  <si>
+    <t>MARIA CELESTE</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>MARIA INGRID</t>
+  </si>
+  <si>
+    <t>ELTHON ALAIN</t>
   </si>
 </sst>
 </file>
@@ -791,7 +827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -826,25 +862,117 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920227</v>
+        <v>18330051920360</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920362</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920372</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920373</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,51 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>LOMAN</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>COTLAME</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>MARY ESTEFANY</t>
-  </si>
-  <si>
-    <t>MARIA CELESTE</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>MARIA INGRID</t>
-  </si>
-  <si>
-    <t>ELTHON ALAIN</t>
   </si>
 </sst>
 </file>
@@ -522,19 +477,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,19 +503,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>67.86</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,19 +529,19 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>59.09</v>
+        <v>72.73</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -642,16 +597,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>60.71</v>
+      </c>
+      <c r="H2">
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -665,16 +623,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>53.57</v>
+      </c>
+      <c r="H3">
+        <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -688,16 +649,19 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="H4">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -753,19 +717,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -779,16 +743,16 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>67.86</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>6.5</v>
@@ -805,16 +769,16 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>59.09</v>
+        <v>86.36</v>
       </c>
       <c r="H4">
         <v>6.8</v>
@@ -827,7 +791,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,121 +824,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920360</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920362</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920372</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920373</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920375</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
@@ -503,10 +503,10 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -515,7 +515,7 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,10 +529,10 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -541,7 +541,7 @@
         <v>72.73</v>
       </c>
       <c r="H4">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -597,16 +597,16 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>60.71</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H2">
         <v>7.2</v>
@@ -623,16 +623,16 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>53.57</v>
+        <v>60.71</v>
       </c>
       <c r="H3">
         <v>6.5</v>
@@ -649,16 +649,16 @@
         <v>22</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>81.81999999999999</v>
+        <v>86.36</v>
       </c>
       <c r="H4">
         <v>6.4</v>
@@ -743,10 +743,10 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -755,7 +755,7 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -769,10 +769,10 @@
         <v>22</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>19</v>
@@ -781,7 +781,7 @@
         <v>86.36</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>CHORA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>GABRIEL ALEJANDRO</t>
   </si>
 </sst>
 </file>
@@ -791,7 +800,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,6 +833,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
